--- a/BalanceSheet/PEG_bal.xlsx
+++ b/BalanceSheet/PEG_bal.xlsx
@@ -3062,19 +3062,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>99000000.0</v>
+        <v>6502000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-64000000.0</v>
+        <v>6334000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>86000000.0</v>
+        <v>6481000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>18000000.0</v>
+        <v>6321000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>41000000.0</v>
+        <v>6256000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>6143000000.0</v>
